--- a/HeroAcheiver.xlsx
+++ b/HeroAcheiver.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>S No</t>
   </si>
@@ -205,6 +205,12 @@
   <si>
     <t>Hero Acheiver</t>
   </si>
+  <si>
+    <t>dfsfjkaj</t>
+  </si>
+  <si>
+    <t>Purchased Date</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,9 +412,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -818,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -836,7 +839,7 @@
     <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1">
+    <row r="1" spans="1:9" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
@@ -861,8 +864,11 @@
       <c r="H1" s="30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="35" customFormat="1">
+      <c r="I1" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="35" customFormat="1">
       <c r="A2" s="31" t="s">
         <v>42</v>
       </c>
@@ -891,59 +897,43 @@
       <c r="H2" s="34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="35" customFormat="1">
-      <c r="B3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" s="35" customFormat="1">
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="35" customFormat="1">
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" s="35" customFormat="1"/>
-    <row r="7" spans="1:8" s="35" customFormat="1"/>
-    <row r="8" spans="1:8" s="35" customFormat="1"/>
-    <row r="9" spans="1:8" s="35" customFormat="1"/>
-    <row r="10" spans="1:8" s="35" customFormat="1"/>
-    <row r="11" spans="1:8" s="35" customFormat="1"/>
-    <row r="12" spans="1:8" s="35" customFormat="1"/>
-    <row r="13" spans="1:8" s="35" customFormat="1"/>
-    <row r="14" spans="1:8" s="35" customFormat="1"/>
-    <row r="15" spans="1:8" s="35" customFormat="1"/>
-    <row r="16" spans="1:8" s="35" customFormat="1"/>
-    <row r="17" s="35" customFormat="1"/>
-    <row r="18" s="35" customFormat="1"/>
-    <row r="19" s="35" customFormat="1"/>
-    <row r="20" s="35" customFormat="1"/>
-    <row r="21" s="35" customFormat="1"/>
-    <row r="22" s="35" customFormat="1"/>
-    <row r="23" s="35" customFormat="1"/>
-    <row r="24" s="35" customFormat="1"/>
-    <row r="25" s="35" customFormat="1"/>
-    <row r="26" s="35" customFormat="1"/>
-    <row r="27" s="35" customFormat="1"/>
-    <row r="28" s="35" customFormat="1"/>
-    <row r="29" s="35" customFormat="1"/>
-    <row r="30" s="35" customFormat="1"/>
-    <row r="31" s="35" customFormat="1"/>
-    <row r="32" s="35" customFormat="1"/>
-    <row r="33" s="35" customFormat="1"/>
-    <row r="34" s="35" customFormat="1"/>
-    <row r="35" s="35" customFormat="1"/>
-    <row r="36" s="35" customFormat="1"/>
-    <row r="37" s="35" customFormat="1"/>
-    <row r="38" s="35" customFormat="1"/>
-    <row r="39" s="35" customFormat="1"/>
-    <row r="40" s="35" customFormat="1"/>
-    <row r="41" s="35" customFormat="1"/>
-    <row r="42" s="35" customFormat="1"/>
-    <row r="43" s="35" customFormat="1"/>
-    <row r="44" s="35" customFormat="1"/>
-    <row r="45" s="35" customFormat="1"/>
-    <row r="46" s="35" customFormat="1"/>
-    <row r="47" s="35" customFormat="1"/>
+      <c r="I2" s="17">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="35" customFormat="1">
+      <c r="A3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="32">
+        <v>69959</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1140</v>
+      </c>
+      <c r="D3" s="33">
+        <f>SUM(B3,C3)</f>
+        <v>71099</v>
+      </c>
+      <c r="E3" s="33">
+        <f>Services!I2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <f>Fuel!I2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <f>D3+E3+F3</f>
+        <v>71099</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="17">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12002,10 +11992,10 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="37">
+      <c r="I1" s="36">
         <f>SUM(D2:D998)</f>
         <v>14443.869999999999</v>
       </c>
@@ -12030,8 +12020,8 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -14871,10 +14861,10 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="37">
+      <c r="I1" s="36">
         <f>SUM(D2:D99)</f>
         <v>1943</v>
       </c>
@@ -14899,8 +14889,8 @@
         <f t="shared" ref="F2:F3" si="0">B2+100</f>
         <v>43618</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -22945,7 +22935,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -23046,14 +23036,14 @@
       <c r="D5" s="18">
         <v>950</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="40">
         <f>SUM(H1:H3)</f>
         <v>87485.87</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -23068,9 +23058,9 @@
       <c r="D6" s="18">
         <v>190</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
@@ -23083,22 +23073,22 @@
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="11"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="4"/>
       <c r="D9" s="11"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>

--- a/HeroAcheiver.xlsx
+++ b/HeroAcheiver.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>S No</t>
   </si>
@@ -206,10 +206,13 @@
     <t>Hero Acheiver</t>
   </si>
   <si>
-    <t>dfsfjkaj</t>
+    <t>Purchased Date</t>
   </si>
   <si>
-    <t>Purchased Date</t>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>testing2</t>
   </si>
 </sst>
 </file>
@@ -821,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -865,7 +868,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1">
@@ -901,9 +904,9 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="35" customFormat="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="32">
         <v>69959</v>
@@ -931,6 +934,39 @@
         <v>40</v>
       </c>
       <c r="I3" s="17">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="32">
+        <v>69959</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1140</v>
+      </c>
+      <c r="D4" s="33">
+        <f>SUM(B4,C4)</f>
+        <v>71099</v>
+      </c>
+      <c r="E4" s="33">
+        <f>Services!I3</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <f>Fuel!I3</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <f>D4+E4+F4</f>
+        <v>71099</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17">
         <v>43495</v>
       </c>
     </row>
@@ -8551,7 +8587,7 @@
       </c>
       <c r="H2" s="6">
         <f ca="1">DATEDIF(TODAY(),Services!F6,"D")</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -8625,7 +8661,7 @@
       </c>
       <c r="H6" s="13">
         <f ca="1">H4/H2</f>
-        <v>52.912820512820524</v>
+        <v>54.30526315789475</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
